--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
   <si>
     <t>컬럼 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,261 +162,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishlist(회원이 듣고 싶어하는 강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_dt(결제일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>member_pwd(회원 비밀번호)</t>
+  </si>
+  <si>
+    <t>member_name(회원 이름)</t>
+  </si>
+  <si>
+    <t>member_email(회원 이메일)</t>
+  </si>
+  <si>
+    <t>member_phone(회원 전화번호)</t>
+  </si>
+  <si>
+    <t>member_sex(회원 성별)</t>
+  </si>
+  <si>
+    <t>member_favorite1(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_favorite2(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_favorite3(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>member_lecture_history(회원이 결제한 강의)</t>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_link(강사 소개 link)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_introduce(강사 자기소개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_career_file(강사 이력서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_id(회원 ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK, not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_img(강의 사진 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_title(강의 제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_content(강의 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_status(강의 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_price(강의 가격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_prepared(강의 준비물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_caution(강의 유의사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일은 여기에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_fileName(강의 설명 첨부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf, jpg, hwp, docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(기본값 N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_start_dt(강의 시작 날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_end_dt(강의 종료 날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_content(강의 후기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_date(강의 작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_cancel_reason(강의 취소 사유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_reject_reson(강의 반려 사유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_detail(강의 상세 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id(강의 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_current(강의현재인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인대기/승인/취소대기/취소/반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_id(게시글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_member_id(게시글 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_content(게시글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_category(게시글 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_fileName(게시글 첨부파일 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_write_dt(작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_viewCount(조회수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_deleteYN(삭제여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_category_id(강사 전문분야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tutor_id(강사번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id(카테고리 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id(후기 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_dt(환불일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id(카테고리 약어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_location(강의 장소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudyBoard(자유게시판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_id(게시글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_member_id(게시글 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_category(게시글 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_content(게시글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_fileName(게시글 첨부파일 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_write_dt(작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_viewCount(조회수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_deleteYN(삭제여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudyReply(게시글 내 댓글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_id(댓글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_parent_board(어느 게시글 출신인지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sutdyReply_member_id(댓글 게시자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_content(댓글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_dt(댓글 작성 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id(회원 아이디)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lec_category(카테고리/관심분야)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wishlist(회원이 듣고 싶어하는 강의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_dt(결제일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member(회원)</t>
-  </si>
-  <si>
-    <t>member_id(회원 아이디)</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>member_pwd(회원 비밀번호)</t>
-  </si>
-  <si>
-    <t>member_name(회원 이름)</t>
-  </si>
-  <si>
-    <t>member_email(회원 이메일)</t>
-  </si>
-  <si>
-    <t>member_phone(회원 전화번호)</t>
-  </si>
-  <si>
-    <t>member_sex(회원 성별)</t>
-  </si>
-  <si>
-    <t>member_favorite1(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_favorite2(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_favorite3(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>member_lecture_history(회원이 결제한 강의)</t>
-  </si>
-  <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_link(강사 소개 link)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_introduce(강사 자기소개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_career_file(강사 이력서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_id(회원 ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK, not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_img(강의 사진 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_title(강의 제목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_content(강의 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_status(강의 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_price(강의 가격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_prepared(강의 준비물)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_caution(강의 유의사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일은 여기에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_fileName(강의 설명 첨부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf, jpg, hwp, docs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin(기본값 N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_start_dt(강의 시작 날짜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_end_dt(강의 종료 날짜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_content(강의 후기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_date(강의 작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_cancel_reason(강의 취소 사유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_reject_reson(강의 반려 사유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_detail(강의 상세 정보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id(강의 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_current(강의현재인원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인대기/승인/취소대기/취소/반려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_id(게시글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_member_id(게시글 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_content(게시글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_category(게시글 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_fileName(게시글 첨부파일 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_write_dt(작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_viewCount(조회수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_deleteYN(삭제여부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FreeBoard(자유게시판)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FreeReply(게시글 내 댓글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>freeReply_id(댓글 번호)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +535,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>freeReply_member_id(댓글 게시자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>freeReply_content(댓글 내용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,118 +547,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FreeReply(게시글 내 댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_category_id(강사 전문분야)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_tutor_id(강사번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_id(카테고리 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_member_id(댓글 게시자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id(후기 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel_dt(환불일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id(카테고리 약어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_location(강의 장소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StudyBoard(자유게시판)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_id(게시글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_member_id(게시글 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_category(게시글 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_content(게시글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_fileName(게시글 첨부파일 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_write_dt(작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_viewCount(조회수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_deleteYN(삭제여부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StudyReply(게시글 내 댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_id(댓글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_parent_board(어느 게시글 출신인지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sutdyReply_member_id(댓글 게시자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_content(댓글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_dt(댓글 작성 시간)</t>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(900)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -973,6 +1011,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1051,6 +1094,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1085,6 +1129,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1260,11 +1305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1292,7 +1337,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="36" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -1352,10 +1397,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1363,53 +1408,53 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E5" s="11"/>
       <c r="H5" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1432,10 +1477,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1445,7 +1490,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>6</v>
@@ -1458,20 +1503,20 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>6</v>
@@ -1484,10 +1529,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1495,7 +1540,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>6</v>
@@ -1506,10 +1551,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1524,10 +1569,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1542,10 +1587,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1560,10 +1605,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1698,7 +1743,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="36" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
@@ -1707,7 +1752,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="36" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
@@ -1789,7 +1834,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
@@ -1800,7 +1845,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>8</v>
@@ -1813,20 +1858,20 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>6</v>
@@ -1835,11 +1880,11 @@
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>6</v>
@@ -1848,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
@@ -1867,7 +1912,7 @@
       </c>
       <c r="E32" s="25"/>
       <c r="H32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6</v>
@@ -1876,11 +1921,11 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>6</v>
@@ -1889,24 +1934,24 @@
         <v>13</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="H33" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>6</v>
@@ -1917,7 +1962,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="N33" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>6</v>
@@ -1930,18 +1975,18 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="H34" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6</v>
@@ -1950,7 +1995,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="N34" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>6</v>
@@ -1961,18 +2006,18 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="H35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>18</v>
@@ -1981,7 +2026,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="3"/>
       <c r="N35" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
@@ -1992,18 +2037,18 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="H36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>19</v>
@@ -2012,7 +2057,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="3"/>
       <c r="N36" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>19</v>
@@ -2023,20 +2068,20 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>6</v>
@@ -2047,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>6</v>
@@ -2060,13 +2105,13 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
@@ -2083,13 +2128,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -2109,10 +2154,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -2132,10 +2177,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
@@ -2152,10 +2197,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -2284,7 +2329,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
@@ -2293,7 +2338,7 @@
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2302,7 +2347,7 @@
       </c>
       <c r="O53" s="33"/>
       <c r="P53" s="36" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="38"/>
@@ -2382,14 +2427,14 @@
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E56" s="3"/>
       <c r="H56" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>3</v>
@@ -2397,10 +2442,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>3</v>
@@ -2410,7 +2455,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>20</v>
@@ -2419,11 +2464,11 @@
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>19</v>
@@ -2432,11 +2477,11 @@
         <v>14</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="L57" s="3"/>
       <c r="N57" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>19</v>
@@ -2451,29 +2496,29 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="H58" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>6</v>
@@ -2482,27 +2527,27 @@
         <v>14</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>24</v>
@@ -2510,7 +2555,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>6</v>
@@ -2523,18 +2568,18 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>31</v>
@@ -2545,7 +2590,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="N60" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>18</v>
@@ -2558,10 +2603,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2579,10 +2624,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2600,10 +2645,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2779,7 +2824,7 @@
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="36" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="38"/>
@@ -2788,7 +2833,7 @@
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K77" s="37"/>
       <c r="L77" s="38"/>
@@ -2839,7 +2884,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>35</v>
@@ -2856,7 +2901,7 @@
         <v>30</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K80" s="21" t="s">
         <v>33</v>
@@ -2876,16 +2921,16 @@
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -2896,7 +2941,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>6</v>
@@ -3093,7 +3138,7 @@
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K99" s="37"/>
       <c r="L99" s="38"/>
@@ -3147,13 +3192,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E102" s="25"/>
       <c r="H102" s="2" t="s">
@@ -3172,20 +3217,20 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E103" s="25"/>
       <c r="H103" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>6</v>
@@ -3194,26 +3239,26 @@
         <v>25</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E104" s="25"/>
       <c r="H104" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>6</v>
@@ -3231,15 +3276,15 @@
         <v>29</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="H105" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>18</v>
@@ -3252,18 +3297,18 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="H106" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>18</v>
@@ -3274,13 +3319,13 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
@@ -3429,7 +3474,7 @@
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" s="37"/>
       <c r="E121" s="38"/>
@@ -3460,7 +3505,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3469,7 +3514,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3478,7 +3523,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3585,20 +3630,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A99:B100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="J99:L100"/>
-    <mergeCell ref="A121:B122"/>
-    <mergeCell ref="C121:E122"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="C53:E54"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="N53:O54"/>
@@ -3611,6 +3642,20 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="C27:E28"/>
     <mergeCell ref="J27:L28"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:E100"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="J99:L100"/>
+    <mergeCell ref="A121:B122"/>
+    <mergeCell ref="C121:E122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3632,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="152">
   <si>
     <t>컬럼 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,11 +98,392 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name(카테고리 명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_min(강의최소인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_max(강의최대인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review(강의 후기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_score(강의 평점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar2()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>board</t>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값 N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishlist(회원이 듣고 싶어하는 강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_dt(결제일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>member_pwd(회원 비밀번호)</t>
+  </si>
+  <si>
+    <t>member_name(회원 이름)</t>
+  </si>
+  <si>
+    <t>member_email(회원 이메일)</t>
+  </si>
+  <si>
+    <t>member_phone(회원 전화번호)</t>
+  </si>
+  <si>
+    <t>member_sex(회원 성별)</t>
+  </si>
+  <si>
+    <t>member_favorite1(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_favorite2(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_favorite3(회원 관심분야)</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>member_lecture_history(회원이 결제한 강의)</t>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_link(강사 소개 link)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_introduce(강사 자기소개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_career_file(강사 이력서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_id(회원 ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK, not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_img(강의 사진 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_title(강의 제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_content(강의 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_status(강의 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_price(강의 가격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_prepared(강의 준비물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_caution(강의 유의사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일은 여기에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_fileName(강의 설명 첨부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf, jpg, hwp, docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin(기본값 N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_start_dt(강의 시작 날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_end_dt(강의 종료 날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_content(강의 후기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_date(강의 작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_cancel_reason(강의 취소 사유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_reject_reson(강의 반려 사유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_detail(강의 상세 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id(강의 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_current(강의현재인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인대기/승인/취소대기/취소/반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_id(게시글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_member_id(게시글 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_content(게시글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_fileName(게시글 첨부파일 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_write_dt(작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_viewCount(조회수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_deleteYN(삭제여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_category_id(강사 전문분야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_tutor_id(강사번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id(후기 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_dt(환불일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id(카테고리 약어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_location(강의 장소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudyBoard(자유게시판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_id(게시글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_member_id(게시글 작성자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_content(게시글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_fileName(게시글 첨부파일 경로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_write_dt(작성일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_viewCount(조회수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_deleteYN(삭제여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudyReply(게시글 내 댓글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_id(댓글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_parent_board(어느 게시글 출신인지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sutdyReply_member_id(댓글 게시자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_content(댓글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyReply_dt(댓글 작성 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id(회원 아이디)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,67 +491,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_name(카테고리 명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_min(강의최소인원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_max(강의최대인원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review(강의 후기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_score(강의 평점)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본값 N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wishlist(회원이 듣고 싶어하는 강의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board_category</t>
+    <t>lec_category(카테고리/관심분야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard(자유게시판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeReply(게시글 내 댓글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeReply_id(댓글 번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeReply_parent_board(어느 게시글 출신인지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeReply_member_id(댓글 게시자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeReply_content(댓글 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeReply_dt(댓글 작성 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(900)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,332 +571,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>payment_dt(결제일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>member_pwd(회원 비밀번호)</t>
-  </si>
-  <si>
-    <t>member_name(회원 이름)</t>
-  </si>
-  <si>
-    <t>member_email(회원 이메일)</t>
-  </si>
-  <si>
-    <t>member_phone(회원 전화번호)</t>
-  </si>
-  <si>
-    <t>member_sex(회원 성별)</t>
-  </si>
-  <si>
-    <t>member_favorite1(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_favorite2(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_favorite3(회원 관심분야)</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>member_lecture_history(회원이 결제한 강의)</t>
-  </si>
-  <si>
-    <t>PK, FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_link(강사 소개 link)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_introduce(강사 자기소개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_career_file(강사 이력서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_id(회원 ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK, not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_img(강의 사진 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_title(강의 제목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_content(강의 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_status(강의 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_price(강의 가격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_prepared(강의 준비물)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_caution(강의 유의사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일은 여기에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_fileName(강의 설명 첨부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf, jpg, hwp, docs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin(기본값 N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_start_dt(강의 시작 날짜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_end_dt(강의 종료 날짜)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_content(강의 후기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_date(강의 작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_cancel_reason(강의 취소 사유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_reject_reson(강의 반려 사유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_detail(강의 상세 정보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id(강의 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_current(강의현재인원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인대기/승인/취소대기/취소/반려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_id(게시글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_member_id(게시글 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_content(게시글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_category(게시글 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_fileName(게시글 첨부파일 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_write_dt(작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_viewCount(조회수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeBoard_deleteYN(삭제여부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor_category_id(강사 전문분야)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_tutor_id(강사번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_id(카테고리 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id(후기 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel_dt(환불일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_category_id(카테고리 약어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture_location(강의 장소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StudyBoard(자유게시판)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_id(게시글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_member_id(게시글 작성자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_category(게시글 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_content(게시글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_fileName(게시글 첨부파일 경로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_write_dt(작성일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_viewCount(조회수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyBoard_deleteYN(삭제여부)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StudyReply(게시글 내 댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_id(댓글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_parent_board(어느 게시글 출신인지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sutdyReply_member_id(댓글 게시자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_content(댓글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studyReply_dt(댓글 작성 시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member(회원)</t>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_score(강사 평점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number-sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(600)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyBoard_title(게시글 제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id(카테고리 약어)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,78 +611,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lec_category(카테고리/관심분야)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeBoard(자유게시판)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeReply(게시글 내 댓글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_id(댓글 번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_parent_board(어느 게시글 출신인지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_member_id(댓글 게시자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_content(댓글 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeReply_dt(댓글 작성 시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(900)</t>
+    <t>varchar2(1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1094,7 +1130,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1129,7 +1164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1305,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1337,7 +1371,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -1397,10 +1431,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1408,66 +1442,66 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E5" s="11"/>
       <c r="H5" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
@@ -1477,23 +1511,23 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -1503,23 +1537,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
@@ -1529,10 +1563,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1540,10 +1574,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1551,28 +1585,32 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1587,10 +1625,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1605,10 +1643,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1743,7 +1781,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
@@ -1752,7 +1790,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
@@ -1834,7 +1872,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
@@ -1845,7 +1883,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>8</v>
@@ -1858,48 +1896,48 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
@@ -1912,60 +1950,54 @@
       </c>
       <c r="E32" s="25"/>
       <c r="H32" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Q32" s="1"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="H33" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="N33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>7</v>
@@ -1975,30 +2007,30 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="H34" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="N34" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2006,27 +2038,29 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="H35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
       <c r="N35" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
@@ -2037,81 +2071,79 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="H36" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N36" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="L37" s="3"/>
       <c r="N37" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
@@ -2128,13 +2160,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -2151,13 +2183,13 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -2174,13 +2206,13 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
@@ -2197,10 +2229,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -2329,7 +2361,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
@@ -2338,7 +2370,7 @@
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2347,7 +2379,7 @@
       </c>
       <c r="O53" s="33"/>
       <c r="P53" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="38"/>
@@ -2421,20 +2453,20 @@
         <v>17</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E56" s="3"/>
       <c r="H56" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>3</v>
@@ -2442,10 +2474,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>3</v>
@@ -2455,20 +2487,20 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>19</v>
@@ -2477,11 +2509,13 @@
         <v>14</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L57" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="N57" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>19</v>
@@ -2490,75 +2524,77 @@
         <v>14</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="H58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>7</v>
@@ -2568,21 +2604,21 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>7</v>
@@ -2590,7 +2626,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="N60" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>18</v>
@@ -2603,10 +2639,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2624,10 +2660,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2645,10 +2681,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2824,7 +2860,7 @@
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="38"/>
@@ -2833,7 +2869,7 @@
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K77" s="37"/>
       <c r="L77" s="38"/>
@@ -2884,10 +2920,10 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>35</v>
+        <v>149</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2895,25 +2931,25 @@
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
       <c r="H80" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="K80" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L80" s="31"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>7</v>
@@ -2921,16 +2957,16 @@
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -2941,16 +2977,16 @@
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L82" s="3"/>
     </row>
@@ -3129,7 +3165,7 @@
       </c>
       <c r="B99" s="33"/>
       <c r="C99" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="38"/>
@@ -3138,7 +3174,7 @@
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K99" s="37"/>
       <c r="L99" s="38"/>
@@ -3192,99 +3228,101 @@
         <v>17</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E102" s="25"/>
       <c r="H102" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L102" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E103" s="25"/>
       <c r="H103" s="2" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E104" s="25"/>
       <c r="H104" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="H105" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>18</v>
@@ -3297,18 +3335,18 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="H106" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>18</v>
@@ -3319,13 +3357,13 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
@@ -3474,7 +3512,7 @@
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D121" s="37"/>
       <c r="E121" s="38"/>
@@ -3505,7 +3543,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3514,7 +3552,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3523,7 +3561,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3630,6 +3668,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:E100"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="J99:L100"/>
+    <mergeCell ref="A121:B122"/>
+    <mergeCell ref="C121:E122"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="C53:E54"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="N53:O54"/>
@@ -3642,20 +3694,6 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="C27:E28"/>
     <mergeCell ref="J27:L28"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="A99:B100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="J99:L100"/>
-    <mergeCell ref="A121:B122"/>
-    <mergeCell ref="C121:E122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3664,7 +3702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="154">
   <si>
     <t>컬럼 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tutor_link(강사 소개 link)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK, not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lecture_prepared(강의 준비물)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tutor_category_id(강사 전문분야)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lecture_tutor_id(강사번호)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +596,30 @@
   </si>
   <si>
     <t>varchar2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq-number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor_category_id(강사 전문분야 약어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_category_id(강의 카테고리 약어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1371,7 +1379,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -1431,10 +1439,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1442,10 +1450,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>53</v>
@@ -1460,26 +1468,26 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="11"/>
       <c r="H5" s="22" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -1488,7 +1496,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1501,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
@@ -1514,7 +1522,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1524,10 +1532,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -1537,23 +1545,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
@@ -1566,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1574,10 +1582,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1588,7 +1596,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1596,10 +1604,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="H10" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1610,7 +1618,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1628,7 +1636,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1646,7 +1654,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1781,7 +1789,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
@@ -1790,7 +1798,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
@@ -1864,7 +1872,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1872,7 +1880,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
@@ -1883,7 +1891,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>8</v>
@@ -1896,23 +1904,23 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
@@ -1922,10 +1930,10 @@
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>10</v>
@@ -1937,10 +1945,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -1950,10 +1958,10 @@
       </c>
       <c r="E32" s="25"/>
       <c r="H32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>7</v>
@@ -1961,10 +1969,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>7</v>
@@ -1974,30 +1982,30 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="H33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="N33" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>7</v>
@@ -2007,18 +2015,18 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="H34" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>18</v>
@@ -2027,10 +2035,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="N34" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2038,21 +2046,21 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="H35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2060,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
@@ -2071,21 +2079,21 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="H36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2093,10 +2101,10 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2106,17 +2114,17 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -2124,10 +2132,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="3"/>
       <c r="N37" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2137,13 +2145,13 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
@@ -2160,13 +2168,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -2186,10 +2194,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -2209,10 +2217,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
@@ -2229,10 +2237,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -2361,7 +2369,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2379,7 +2387,7 @@
       </c>
       <c r="O53" s="33"/>
       <c r="P53" s="36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="38"/>
@@ -2453,17 +2461,17 @@
         <v>17</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3"/>
       <c r="H56" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>36</v>
@@ -2474,7 +2482,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>36</v>
@@ -2487,20 +2495,20 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>19</v>
@@ -2509,13 +2517,13 @@
         <v>14</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>19</v>
@@ -2527,24 +2535,24 @@
         <v>20</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>14</v>
@@ -2554,10 +2562,10 @@
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>14</v>
@@ -2569,21 +2577,21 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>23</v>
@@ -2591,10 +2599,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>7</v>
@@ -2604,18 +2612,18 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>30</v>
@@ -2626,7 +2634,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="N60" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>18</v>
@@ -2639,10 +2647,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2660,10 +2668,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2681,10 +2689,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2860,7 +2868,7 @@
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="38"/>
@@ -2920,10 +2928,10 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2949,7 +2957,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>7</v>
@@ -2977,7 +2985,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>6</v>
@@ -3228,15 +3236,17 @@
         <v>17</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="H102" s="2" t="s">
         <v>17</v>
       </c>
@@ -3250,28 +3260,28 @@
         <v>32</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="23" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E103" s="25"/>
       <c r="H103" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>24</v>
@@ -3283,10 +3293,10 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>24</v>
@@ -3296,10 +3306,10 @@
       </c>
       <c r="E104" s="25"/>
       <c r="H104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>24</v>
@@ -3314,10 +3324,10 @@
         <v>28</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
@@ -3335,18 +3345,18 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="H106" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>18</v>
@@ -3357,13 +3367,13 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
@@ -3668,20 +3678,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A99:B100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="J99:L100"/>
-    <mergeCell ref="A121:B122"/>
-    <mergeCell ref="C121:E122"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="C53:E54"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="N53:O54"/>
@@ -3694,6 +3690,20 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="C27:E28"/>
     <mergeCell ref="J27:L28"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:E100"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="J99:L100"/>
+    <mergeCell ref="A121:B122"/>
+    <mergeCell ref="C121:E122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
   <si>
     <t>컬럼 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>review_score(강의 평점)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,6 +616,10 @@
   </si>
   <si>
     <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1450,53 +1450,53 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="11"/>
       <c r="H5" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1532,10 +1532,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -1545,23 +1545,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1582,10 +1582,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1604,10 +1604,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="H10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
@@ -1872,7 +1872,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1880,7 +1880,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
@@ -1891,7 +1891,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>8</v>
@@ -1904,51 +1904,51 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="E32" s="25"/>
       <c r="H32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>7</v>
@@ -1969,10 +1969,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>7</v>
@@ -1982,30 +1982,30 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="H33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="N33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>7</v>
@@ -2015,18 +2015,18 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="H34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>18</v>
@@ -2035,10 +2035,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="N34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2046,21 +2046,21 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="H35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
@@ -2079,32 +2079,32 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="H36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2114,17 +2114,17 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -2132,26 +2132,26 @@
       <c r="K37" s="1"/>
       <c r="L37" s="3"/>
       <c r="N37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -2194,10 +2194,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -2217,10 +2217,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="O53" s="33"/>
       <c r="P53" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="38"/>
@@ -2458,23 +2458,23 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3"/>
       <c r="H56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>3</v>
@@ -2482,10 +2482,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>3</v>
@@ -2495,20 +2495,20 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>19</v>
@@ -2517,13 +2517,13 @@
         <v>14</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>19</v>
@@ -2535,63 +2535,63 @@
         <v>20</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="H58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>23</v>
@@ -2599,10 +2599,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>7</v>
@@ -2612,21 +2612,21 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>7</v>
@@ -2634,7 +2634,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="N60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>18</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="38"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K77" s="37"/>
       <c r="L77" s="38"/>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2939,16 +2939,16 @@
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
       <c r="H80" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I80" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="K80" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L80" s="31"/>
     </row>
@@ -2957,7 +2957,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>7</v>
@@ -2965,16 +2965,16 @@
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -2985,7 +2985,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>6</v>
@@ -2994,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L82" s="3"/>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K99" s="37"/>
       <c r="L99" s="38"/>
@@ -3242,10 +3242,10 @@
         <v>24</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>17</v>
@@ -3257,82 +3257,82 @@
         <v>24</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E103" s="25"/>
       <c r="H103" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="25"/>
       <c r="H104" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="23" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="H105" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>18</v>
@@ -3348,15 +3348,15 @@
         <v>77</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="H106" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>18</v>
@@ -3366,15 +3366,9 @@
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
       <c r="H107" s="2"/>
@@ -3396,9 +3390,6 @@
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="25"/>
       <c r="H109" s="2"/>
@@ -3522,7 +3513,7 @@
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D121" s="37"/>
       <c r="E121" s="38"/>
@@ -3553,7 +3544,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3562,7 +3553,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3571,7 +3562,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
   <si>
     <t>컬럼 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>not null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,6 +612,22 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBoard_title(게시글 제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1359,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1379,7 +1387,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -1388,7 +1396,7 @@
       </c>
       <c r="I1" s="33"/>
       <c r="J1" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="38"/>
@@ -1419,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>0</v>
@@ -1434,15 +1442,15 @@
         <v>4</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1450,142 +1458,142 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="H4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="11"/>
       <c r="H5" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="H9" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1593,21 +1601,21 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="H10" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1615,13 +1623,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
@@ -1633,13 +1641,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
@@ -1651,10 +1659,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1780,7 +1788,7 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -1789,7 +1797,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="38"/>
@@ -1798,7 +1806,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
@@ -1834,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -1849,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>0</v>
@@ -1864,15 +1872,15 @@
         <v>4</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1880,10 +1888,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>3</v>
@@ -1891,10 +1899,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="3"/>
       <c r="N30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>3</v>
@@ -1904,141 +1912,143 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E32" s="25"/>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="H33" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="3"/>
       <c r="N33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="H34" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="3"/>
       <c r="N34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2046,32 +2056,30 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="H35" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
+      <c r="L35" s="3"/>
       <c r="N35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2079,32 +2087,32 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="H36" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="3" t="s">
-        <v>30</v>
+      <c r="L36" s="3">
+        <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2114,44 +2122,50 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="N37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
@@ -2168,13 +2182,13 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -2191,13 +2205,13 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -2214,13 +2228,13 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
@@ -2237,10 +2251,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -2369,7 +2383,7 @@
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
@@ -2378,7 +2392,7 @@
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K53" s="37"/>
       <c r="L53" s="38"/>
@@ -2387,7 +2401,7 @@
       </c>
       <c r="O53" s="33"/>
       <c r="P53" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="38"/>
@@ -2423,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>0</v>
@@ -2438,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>0</v>
@@ -2453,28 +2467,28 @@
         <v>4</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="3"/>
       <c r="H56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>3</v>
@@ -2482,10 +2496,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>3</v>
@@ -2495,162 +2509,162 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="3"/>
       <c r="H57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R57" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="H58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L58" s="3"/>
       <c r="N58" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
       <c r="N59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
       <c r="N60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2668,10 +2682,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2689,10 +2703,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2868,7 +2882,7 @@
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="38"/>
@@ -2877,7 +2891,7 @@
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K77" s="37"/>
       <c r="L77" s="38"/>
@@ -2908,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>0</v>
@@ -2923,15 +2937,15 @@
         <v>4</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2939,42 +2953,44 @@
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
       <c r="H80" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L80" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="L80" s="31" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L81" s="3"/>
     </row>
@@ -2985,16 +3001,16 @@
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L82" s="3"/>
     </row>
@@ -3173,7 +3189,7 @@
       </c>
       <c r="B99" s="33"/>
       <c r="C99" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="38"/>
@@ -3182,7 +3198,7 @@
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99" s="37"/>
       <c r="L99" s="38"/>
@@ -3213,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>0</v>
@@ -3228,147 +3244,153 @@
         <v>4</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E103" s="25"/>
       <c r="H103" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E104" s="25"/>
       <c r="H104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="H105" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="3"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="H106" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+      <c r="A107" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
       <c r="H107" s="2"/>
@@ -3513,7 +3535,7 @@
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D121" s="37"/>
       <c r="E121" s="38"/>
@@ -3539,32 +3561,40 @@
         <v>4</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="3"/>
@@ -3669,6 +3699,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:E100"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="J99:L100"/>
+    <mergeCell ref="A121:B122"/>
+    <mergeCell ref="C121:E122"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="C53:E54"/>
     <mergeCell ref="N27:O28"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="N53:O54"/>
@@ -3681,20 +3725,6 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="C27:E28"/>
     <mergeCell ref="J27:L28"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="A99:B100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="J99:L100"/>
-    <mergeCell ref="A121:B122"/>
-    <mergeCell ref="C121:E122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
